--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="427">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">ARTHEMETER LUMEFANTRINE</t>
@@ -1477,11 +1480,11 @@
   </sheetPr>
   <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O215" activeCellId="0" sqref="O215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
@@ -1548,26 +1551,29 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>595</v>
@@ -1584,22 +1590,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>550</v>
@@ -1616,22 +1622,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>50</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>15</v>
@@ -1680,22 +1686,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>250</v>
@@ -1712,22 +1718,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>373.75</v>
@@ -1744,22 +1750,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>2500</v>
@@ -1776,22 +1782,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2930</v>
@@ -1808,22 +1814,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1380</v>
@@ -1840,22 +1846,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1550</v>
@@ -1872,22 +1878,22 @@
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1400</v>
@@ -1904,20 +1910,20 @@
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>10296</v>
@@ -1934,22 +1940,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>150</v>
@@ -1966,22 +1972,22 @@
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>580</v>
@@ -1998,22 +2004,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>3740</v>
@@ -2030,22 +2036,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2847</v>
@@ -2062,22 +2068,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>3059</v>
@@ -2094,22 +2100,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>3792</v>
@@ -2126,22 +2132,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2800</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>900</v>
@@ -2190,22 +2196,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>770</v>
@@ -2222,22 +2228,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>6000</v>
@@ -2254,20 +2260,20 @@
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>6000</v>
@@ -2284,22 +2290,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>2500</v>
@@ -2316,22 +2322,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1250</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>1900</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>40367</v>
@@ -2412,22 +2418,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>40367</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>680</v>
@@ -2474,20 +2480,20 @@
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>334</v>
@@ -2504,22 +2510,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>770</v>
@@ -2536,22 +2542,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>6500</v>
@@ -2568,22 +2574,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>800</v>
@@ -2600,22 +2606,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1572</v>
@@ -2630,22 +2636,22 @@
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>275</v>
@@ -2662,22 +2668,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1035</v>
@@ -2694,22 +2700,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>687.5</v>
@@ -2726,22 +2732,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>790</v>
@@ -2758,22 +2764,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>4300</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>21353</v>
@@ -2820,22 +2826,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>437.5</v>
@@ -2852,22 +2858,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2000</v>
@@ -2884,22 +2890,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>117.8</v>
@@ -2916,22 +2922,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>7290</v>
@@ -2948,22 +2954,22 @@
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>1223.75</v>
@@ -2980,20 +2986,20 @@
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>751.3</v>
@@ -3010,22 +3016,22 @@
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>1000</v>
@@ -3042,22 +3048,22 @@
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>9900</v>
@@ -3074,22 +3080,22 @@
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>5700</v>
@@ -3106,22 +3112,22 @@
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>750</v>
@@ -3138,22 +3144,22 @@
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>700</v>
@@ -3170,22 +3176,22 @@
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>3295</v>
@@ -3202,22 +3208,22 @@
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>4160</v>
@@ -3234,22 +3240,22 @@
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="I55" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>3700</v>
@@ -3266,22 +3272,22 @@
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>8030</v>
@@ -3298,22 +3304,22 @@
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2700</v>
@@ -3330,22 +3336,22 @@
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>2000</v>
@@ -3362,22 +3368,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>310</v>
@@ -3394,22 +3400,22 @@
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>350</v>
@@ -3426,22 +3432,22 @@
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>430</v>
@@ -3458,22 +3464,22 @@
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>1000</v>
@@ -3490,22 +3496,22 @@
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>3500</v>
@@ -3522,22 +3528,22 @@
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>850</v>
@@ -3554,22 +3560,22 @@
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>6494</v>
@@ -3586,22 +3592,22 @@
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>34000</v>
@@ -3618,20 +3624,20 @@
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>3250</v>
@@ -3648,22 +3654,22 @@
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>1200</v>
@@ -3680,20 +3686,20 @@
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>170</v>
@@ -3710,20 +3716,20 @@
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>1500</v>
@@ -3740,20 +3746,20 @@
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>500</v>
@@ -3770,20 +3776,20 @@
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>980</v>
@@ -3800,21 +3806,21 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K73" s="7" t="n">
         <v>1200</v>
@@ -3831,21 +3837,21 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K74" s="7" t="n">
         <v>250</v>
@@ -3862,21 +3868,21 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K75" s="7" t="n">
         <v>385</v>
@@ -3893,21 +3899,21 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K76" s="7" t="n">
         <v>330</v>
@@ -3924,21 +3930,21 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K77" s="7" t="n">
         <v>1320</v>
@@ -3955,21 +3961,21 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K78" s="7" t="n">
         <v>1200</v>
@@ -3986,21 +3992,21 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K79" s="7" t="n">
         <v>3000</v>
@@ -4017,21 +4023,21 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K80" s="7" t="n">
         <v>1850</v>
@@ -4048,21 +4054,21 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K81" s="7" t="n">
         <v>1000</v>
@@ -4079,21 +4085,21 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K82" s="7" t="n">
         <v>138</v>
@@ -4110,21 +4116,21 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K83" s="7" t="n">
         <v>950</v>
@@ -4141,21 +4147,21 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K84" s="7" t="n">
         <v>500</v>
@@ -4172,21 +4178,21 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K85" s="7" t="n">
         <v>605</v>
@@ -4203,21 +4209,21 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K86" s="7" t="n">
         <v>3300</v>
@@ -4234,21 +4240,21 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K87" s="7" t="n">
         <v>260</v>
@@ -4265,21 +4271,21 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K88" s="7" t="n">
         <v>800</v>
@@ -4296,21 +4302,21 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K89" s="7" t="n">
         <v>465</v>
@@ -4327,21 +4333,21 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K90" s="7" t="n">
         <v>304</v>
@@ -4358,21 +4364,21 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K91" s="7" t="n">
         <v>200</v>
@@ -4389,21 +4395,21 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K92" s="7" t="n">
         <v>190</v>
@@ -4420,21 +4426,21 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K93" s="7" t="n">
         <v>165</v>
@@ -4451,21 +4457,21 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K94" s="7" t="n">
         <v>250</v>
@@ -4482,21 +4488,21 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K95" s="7" t="n">
         <v>380</v>
@@ -4513,19 +4519,19 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K96" s="7" t="n">
         <v>2500</v>
@@ -4542,19 +4548,19 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K97" s="7" t="n">
         <v>1000</v>
@@ -4571,21 +4577,21 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K98" s="7" t="n">
         <v>3800</v>
@@ -4602,21 +4608,21 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K99" s="7" t="n">
         <v>6250</v>
@@ -4633,21 +4639,21 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K100" s="7" t="n">
         <v>1227</v>
@@ -4664,19 +4670,19 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K101" s="7" t="n">
         <v>157</v>
@@ -4693,21 +4699,21 @@
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K102" s="3" t="n">
         <v>7245</v>
@@ -4724,23 +4730,23 @@
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K103" s="3" t="n">
         <v>480</v>
@@ -4757,23 +4763,23 @@
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K104" s="3" t="n">
         <v>1100</v>
@@ -4790,21 +4796,21 @@
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K105" s="3" t="n">
         <v>4950</v>
@@ -4821,21 +4827,21 @@
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K106" s="3" t="n">
         <v>935</v>
@@ -4852,23 +4858,23 @@
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K107" s="3" t="n">
         <v>4400</v>
@@ -4885,21 +4891,21 @@
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K108" s="3" t="n">
         <v>4539</v>
@@ -4916,23 +4922,23 @@
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K109" s="3" t="n">
         <v>450</v>
@@ -4949,21 +4955,21 @@
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K110" s="3" t="n">
         <v>4000</v>
@@ -4980,23 +4986,23 @@
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K111" s="3" t="n">
         <v>29098</v>
@@ -5013,23 +5019,23 @@
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K112" s="3" t="n">
         <v>9800</v>
@@ -5046,23 +5052,23 @@
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K113" s="3" t="n">
         <v>7800</v>
@@ -5079,23 +5085,23 @@
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K114" s="3" t="n">
         <v>12000</v>
@@ -5112,21 +5118,21 @@
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K115" s="3" t="n">
         <v>9867</v>
@@ -5143,21 +5149,21 @@
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K116" s="3" t="n">
         <v>6500</v>
@@ -5174,23 +5180,23 @@
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K117" s="3" t="n">
         <v>1120</v>
@@ -5207,23 +5213,23 @@
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K118" s="3" t="n">
         <v>1120</v>
@@ -5238,21 +5244,21 @@
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K119" s="3" t="n">
         <v>1050</v>
@@ -5269,23 +5275,23 @@
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K120" s="3" t="n">
         <v>5600</v>
@@ -5302,23 +5308,23 @@
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K121" s="3" t="n">
         <v>6668.5</v>
@@ -5335,23 +5341,23 @@
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K122" s="3" t="n">
         <v>1590.88</v>
@@ -5368,23 +5374,23 @@
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K123" s="3" t="n">
         <v>1265</v>
@@ -5401,23 +5407,23 @@
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K124" s="3" t="n">
         <v>1455</v>
@@ -5434,23 +5440,23 @@
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="K125" s="3" t="n">
         <v>554.85</v>
@@ -5467,23 +5473,23 @@
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K126" s="3" t="n">
         <v>1150</v>
@@ -5500,23 +5506,23 @@
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K127" s="3" t="n">
         <v>1038.3</v>
@@ -5533,23 +5539,23 @@
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E128" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K128" s="3" t="n">
         <v>500</v>
@@ -5562,23 +5568,23 @@
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E129" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K129" s="3" t="n">
         <v>495</v>
@@ -5595,23 +5601,23 @@
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E130" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K130" s="3" t="n">
         <v>450</v>
@@ -5628,23 +5634,23 @@
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E131" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J131" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="K131" s="3" t="n">
         <v>422.33</v>
@@ -5661,23 +5667,23 @@
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E132" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K132" s="3" t="n">
         <v>495</v>
@@ -5692,23 +5698,23 @@
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E133" s="8" t="n">
         <v>0.043</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K133" s="3" t="n">
         <v>580</v>
@@ -5725,23 +5731,23 @@
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E134" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K134" s="3" t="n">
         <v>550</v>
@@ -5758,23 +5764,23 @@
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E135" s="8" t="n">
         <v>0.2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K135" s="3" t="n">
         <v>550</v>
@@ -5791,23 +5797,23 @@
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K136" s="3" t="n">
         <v>365</v>
@@ -5824,23 +5830,23 @@
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K137" s="3" t="n">
         <v>416.56</v>
@@ -5857,23 +5863,23 @@
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K138" s="3" t="n">
         <v>480</v>
@@ -5890,21 +5896,21 @@
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K139" s="3" t="n">
         <v>495</v>
@@ -5921,21 +5927,21 @@
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K140" s="3" t="n">
         <v>495</v>
@@ -5952,21 +5958,21 @@
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K141" s="3" t="n">
         <v>230</v>
@@ -5983,21 +5989,21 @@
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K142" s="3" t="n">
         <v>495</v>
@@ -6014,19 +6020,19 @@
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K143" s="3" t="n">
         <v>660</v>
@@ -6043,19 +6049,19 @@
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K144" s="3" t="n">
         <v>520</v>
@@ -6072,19 +6078,19 @@
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K145" s="3" t="n">
         <v>495</v>
@@ -6101,19 +6107,19 @@
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K146" s="3" t="n">
         <v>385</v>
@@ -6130,19 +6136,19 @@
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K147" s="3" t="n">
         <v>391</v>
@@ -6159,19 +6165,19 @@
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K148" s="3" t="n">
         <v>200</v>
@@ -6188,19 +6194,19 @@
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K149" s="3" t="n">
         <v>326</v>
@@ -6217,19 +6223,19 @@
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K150" s="3" t="n">
         <v>275</v>
@@ -6246,19 +6252,19 @@
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K151" s="3" t="n">
         <v>120</v>
@@ -6275,19 +6281,19 @@
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K152" s="3" t="n">
         <v>400</v>
@@ -6304,19 +6310,19 @@
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K153" s="3" t="n">
         <v>400</v>
@@ -6333,23 +6339,23 @@
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K154" s="9" t="n">
         <v>18350</v>
@@ -6366,23 +6372,23 @@
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K155" s="9" t="n">
         <v>7260</v>
@@ -6396,19 +6402,19 @@
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K156" s="3" t="n">
         <v>600</v>
@@ -6425,23 +6431,23 @@
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K157" s="9" t="n">
         <v>5234</v>
@@ -6455,23 +6461,23 @@
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K158" s="9" t="n">
         <v>550</v>
@@ -6488,23 +6494,23 @@
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K159" s="9" t="n">
         <v>700</v>
@@ -6521,23 +6527,23 @@
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K160" s="9" t="n">
         <v>650</v>
@@ -6554,23 +6560,23 @@
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K161" s="9" t="n">
         <v>540</v>
@@ -6587,23 +6593,23 @@
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K162" s="9" t="n">
         <v>720</v>
@@ -6620,23 +6626,23 @@
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K163" s="9" t="n">
         <v>2050</v>
@@ -6653,23 +6659,23 @@
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K164" s="9" t="n">
         <v>1400</v>
@@ -6686,19 +6692,19 @@
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K165" s="9" t="n">
         <v>40000</v>
@@ -6712,19 +6718,19 @@
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K166" s="9" t="n">
         <v>50000</v>
@@ -6738,19 +6744,19 @@
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K167" s="9" t="n">
         <v>42000</v>
@@ -6762,19 +6768,19 @@
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K168" s="9" t="n">
         <v>854.1</v>
@@ -6791,21 +6797,21 @@
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K169" s="9" t="n">
         <v>4500</v>
@@ -6819,21 +6825,21 @@
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K170" s="9" t="n">
         <v>600</v>
@@ -6850,21 +6856,21 @@
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K171" s="9" t="n">
         <v>340</v>
@@ -6881,21 +6887,21 @@
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K172" s="9" t="n">
         <v>3600</v>
@@ -6912,21 +6918,21 @@
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K173" s="9" t="n">
         <v>650</v>
@@ -6943,19 +6949,19 @@
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K174" s="9" t="n">
         <v>3700</v>
@@ -6972,21 +6978,21 @@
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K175" s="9" t="n">
         <v>970</v>
@@ -7003,21 +7009,21 @@
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K176" s="9" t="n">
         <v>48</v>
@@ -7032,23 +7038,23 @@
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K177" s="9" t="n">
         <v>500</v>
@@ -7065,21 +7071,21 @@
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K178" s="9" t="n">
         <v>1550</v>
@@ -7096,19 +7102,19 @@
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K179" s="9" t="n">
         <v>3146</v>
@@ -7125,7 +7131,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E180" s="8" t="n">
         <v>0.02</v>
@@ -7133,13 +7139,13 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K180" s="9" t="n">
         <v>900</v>
@@ -7156,21 +7162,21 @@
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K181" s="9" t="n">
         <v>1500</v>
@@ -7187,21 +7193,21 @@
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K182" s="9" t="n">
         <v>1150</v>
@@ -7218,21 +7224,21 @@
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K183" s="9" t="n">
         <v>1110</v>
@@ -7249,21 +7255,21 @@
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K184" s="9" t="n">
         <v>1200</v>
@@ -7280,19 +7286,19 @@
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K185" s="9" t="n">
         <v>4500</v>
@@ -7309,23 +7315,23 @@
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K186" s="9" t="n">
         <v>689</v>
@@ -7342,19 +7348,19 @@
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K187" s="9" t="n">
         <v>790</v>
@@ -7371,19 +7377,19 @@
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K188" s="9" t="n">
         <v>680</v>
@@ -7400,19 +7406,19 @@
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K189" s="9" t="n">
         <v>120</v>
@@ -7429,21 +7435,21 @@
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K190" s="9" t="n">
         <v>750</v>
@@ -7460,21 +7466,21 @@
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K191" s="9" t="n">
         <v>7000</v>
@@ -7491,19 +7497,19 @@
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K192" s="9" t="n">
         <v>2400</v>
@@ -7520,21 +7526,21 @@
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K193" s="9" t="n">
         <v>350</v>
@@ -7551,19 +7557,19 @@
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K194" s="9" t="n">
         <v>1080</v>
@@ -7580,21 +7586,21 @@
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J195" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J195" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="K195" s="9" t="n">
         <v>350</v>
@@ -7611,19 +7617,19 @@
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K196" s="9" t="n">
         <v>850</v>
@@ -7640,21 +7646,21 @@
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K197" s="9" t="n">
         <v>3200</v>
@@ -7671,21 +7677,21 @@
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J198" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J198" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="K198" s="9" t="n">
         <v>480</v>
@@ -7702,19 +7708,19 @@
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K199" s="9" t="n">
         <v>900</v>
@@ -7731,19 +7737,19 @@
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K200" s="9" t="n">
         <v>2850</v>
@@ -7760,19 +7766,19 @@
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K201" s="9" t="n">
         <v>104</v>
@@ -7789,19 +7795,19 @@
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K202" s="9" t="n">
         <v>1875</v>
@@ -7818,19 +7824,19 @@
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K203" s="9" t="n">
         <v>280</v>
@@ -7847,19 +7853,19 @@
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K204" s="9" t="n">
         <v>9570</v>
@@ -7876,21 +7882,21 @@
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K205" s="9" t="n">
         <v>750</v>
@@ -7907,19 +7913,19 @@
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K206" s="9" t="n">
         <v>8249</v>
@@ -7936,19 +7942,19 @@
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K207" s="9" t="n">
         <v>10121</v>
@@ -7965,21 +7971,21 @@
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K208" s="9" t="n">
         <v>10930</v>
@@ -7996,19 +8002,19 @@
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K209" s="9" t="n">
         <v>85</v>
@@ -8025,21 +8031,21 @@
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K210" s="9" t="n">
         <v>1300</v>
@@ -8056,16 +8062,16 @@
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -8076,21 +8082,21 @@
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K212" s="9" t="n">
         <v>11765</v>
@@ -8107,21 +8113,21 @@
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K213" s="9" t="n">
         <v>11765</v>
@@ -8138,21 +8144,21 @@
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K214" s="9" t="n">
         <v>11759</v>
@@ -8169,19 +8175,19 @@
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K215" s="9" t="n">
         <v>3700</v>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="426">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">ARTHEMETER LUMEFANTRINE</t>
@@ -1480,11 +1477,11 @@
   </sheetPr>
   <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O215" activeCellId="0" sqref="O215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
@@ -1551,29 +1548,26 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>595</v>
@@ -1590,22 +1584,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>550</v>
@@ -1622,22 +1616,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>50</v>
@@ -1654,22 +1648,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>15</v>
@@ -1686,22 +1680,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>250</v>
@@ -1718,22 +1712,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>373.75</v>
@@ -1750,22 +1744,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>2500</v>
@@ -1782,22 +1776,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2930</v>
@@ -1814,22 +1808,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1380</v>
@@ -1846,22 +1840,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1550</v>
@@ -1878,22 +1872,22 @@
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1400</v>
@@ -1910,20 +1904,20 @@
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>10296</v>
@@ -1940,22 +1934,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>150</v>
@@ -1972,22 +1966,22 @@
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>580</v>
@@ -2004,22 +1998,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>3740</v>
@@ -2036,22 +2030,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2847</v>
@@ -2068,22 +2062,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>3059</v>
@@ -2100,22 +2094,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>3792</v>
@@ -2132,22 +2126,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2800</v>
@@ -2164,22 +2158,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>900</v>
@@ -2196,22 +2190,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>770</v>
@@ -2228,22 +2222,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>6000</v>
@@ -2260,20 +2254,20 @@
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>6000</v>
@@ -2290,22 +2284,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>2500</v>
@@ -2322,22 +2316,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1250</v>
@@ -2354,22 +2348,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>1900</v>
@@ -2386,22 +2380,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>40367</v>
@@ -2418,22 +2412,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>40367</v>
@@ -2448,22 +2442,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>680</v>
@@ -2480,20 +2474,20 @@
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>334</v>
@@ -2510,22 +2504,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>770</v>
@@ -2542,22 +2536,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>6500</v>
@@ -2574,22 +2568,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>800</v>
@@ -2606,22 +2600,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1572</v>
@@ -2636,22 +2630,22 @@
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>275</v>
@@ -2668,22 +2662,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1035</v>
@@ -2700,22 +2694,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>687.5</v>
@@ -2732,22 +2726,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>790</v>
@@ -2764,22 +2758,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>4300</v>
@@ -2796,22 +2790,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>21353</v>
@@ -2826,22 +2820,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>437.5</v>
@@ -2858,22 +2852,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2000</v>
@@ -2890,22 +2884,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>117.8</v>
@@ -2922,22 +2916,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>7290</v>
@@ -2954,22 +2948,22 @@
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>1223.75</v>
@@ -2986,20 +2980,20 @@
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>751.3</v>
@@ -3016,22 +3010,22 @@
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>1000</v>
@@ -3048,22 +3042,22 @@
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>9900</v>
@@ -3080,22 +3074,22 @@
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>5700</v>
@@ -3112,22 +3106,22 @@
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>750</v>
@@ -3144,22 +3138,22 @@
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>700</v>
@@ -3176,22 +3170,22 @@
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>3295</v>
@@ -3208,22 +3202,22 @@
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>4160</v>
@@ -3240,22 +3234,22 @@
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>3700</v>
@@ -3272,22 +3266,22 @@
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>8030</v>
@@ -3304,22 +3298,22 @@
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2700</v>
@@ -3336,22 +3330,22 @@
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>2000</v>
@@ -3368,22 +3362,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>310</v>
@@ -3400,22 +3394,22 @@
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>350</v>
@@ -3432,22 +3426,22 @@
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>430</v>
@@ -3464,22 +3458,22 @@
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>1000</v>
@@ -3496,22 +3490,22 @@
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>3500</v>
@@ -3528,22 +3522,22 @@
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>850</v>
@@ -3560,22 +3554,22 @@
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>6494</v>
@@ -3592,22 +3586,22 @@
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="I66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>34000</v>
@@ -3624,20 +3618,20 @@
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>3250</v>
@@ -3654,22 +3648,22 @@
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>1200</v>
@@ -3686,20 +3680,20 @@
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>170</v>
@@ -3716,20 +3710,20 @@
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>1500</v>
@@ -3746,20 +3740,20 @@
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>500</v>
@@ -3776,20 +3770,20 @@
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>980</v>
@@ -3806,21 +3800,21 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="K73" s="7" t="n">
         <v>1200</v>
@@ -3837,21 +3831,21 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="K74" s="7" t="n">
         <v>250</v>
@@ -3868,21 +3862,21 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I75" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="K75" s="7" t="n">
         <v>385</v>
@@ -3899,21 +3893,21 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I76" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="K76" s="7" t="n">
         <v>330</v>
@@ -3930,21 +3924,21 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K77" s="7" t="n">
         <v>1320</v>
@@ -3961,21 +3955,21 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="K78" s="7" t="n">
         <v>1200</v>
@@ -3992,21 +3986,21 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K79" s="7" t="n">
         <v>3000</v>
@@ -4023,21 +4017,21 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K80" s="7" t="n">
         <v>1850</v>
@@ -4054,21 +4048,21 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K81" s="7" t="n">
         <v>1000</v>
@@ -4085,21 +4079,21 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K82" s="7" t="n">
         <v>138</v>
@@ -4116,21 +4110,21 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K83" s="7" t="n">
         <v>950</v>
@@ -4147,21 +4141,21 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K84" s="7" t="n">
         <v>500</v>
@@ -4178,21 +4172,21 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K85" s="7" t="n">
         <v>605</v>
@@ -4209,21 +4203,21 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K86" s="7" t="n">
         <v>3300</v>
@@ -4240,21 +4234,21 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K87" s="7" t="n">
         <v>260</v>
@@ -4271,21 +4265,21 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K88" s="7" t="n">
         <v>800</v>
@@ -4302,21 +4296,21 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K89" s="7" t="n">
         <v>465</v>
@@ -4333,21 +4327,21 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K90" s="7" t="n">
         <v>304</v>
@@ -4364,21 +4358,21 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K91" s="7" t="n">
         <v>200</v>
@@ -4395,21 +4389,21 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K92" s="7" t="n">
         <v>190</v>
@@ -4426,21 +4420,21 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K93" s="7" t="n">
         <v>165</v>
@@ -4457,21 +4451,21 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K94" s="7" t="n">
         <v>250</v>
@@ -4488,21 +4482,21 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K95" s="7" t="n">
         <v>380</v>
@@ -4519,19 +4513,19 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K96" s="7" t="n">
         <v>2500</v>
@@ -4548,19 +4542,19 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K97" s="7" t="n">
         <v>1000</v>
@@ -4577,21 +4571,21 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="J98" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="K98" s="7" t="n">
         <v>3800</v>
@@ -4608,21 +4602,21 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="K99" s="7" t="n">
         <v>6250</v>
@@ -4639,21 +4633,21 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K100" s="7" t="n">
         <v>1227</v>
@@ -4670,19 +4664,19 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K101" s="7" t="n">
         <v>157</v>
@@ -4699,21 +4693,21 @@
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K102" s="3" t="n">
         <v>7245</v>
@@ -4730,23 +4724,23 @@
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="F103" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K103" s="3" t="n">
         <v>480</v>
@@ -4763,23 +4757,23 @@
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I104" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J104" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K104" s="3" t="n">
         <v>1100</v>
@@ -4796,21 +4790,21 @@
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I105" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K105" s="3" t="n">
         <v>4950</v>
@@ -4827,21 +4821,21 @@
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I106" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K106" s="3" t="n">
         <v>935</v>
@@ -4858,23 +4852,23 @@
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K107" s="3" t="n">
         <v>4400</v>
@@ -4891,21 +4885,21 @@
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K108" s="3" t="n">
         <v>4539</v>
@@ -4922,23 +4916,23 @@
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K109" s="3" t="n">
         <v>450</v>
@@ -4955,21 +4949,21 @@
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I110" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K110" s="3" t="n">
         <v>4000</v>
@@ -4986,23 +4980,23 @@
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K111" s="3" t="n">
         <v>29098</v>
@@ -5019,23 +5013,23 @@
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K112" s="3" t="n">
         <v>9800</v>
@@ -5052,23 +5046,23 @@
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I113" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K113" s="3" t="n">
         <v>7800</v>
@@ -5085,23 +5079,23 @@
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K114" s="3" t="n">
         <v>12000</v>
@@ -5118,21 +5112,21 @@
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K115" s="3" t="n">
         <v>9867</v>
@@ -5149,21 +5143,21 @@
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I116" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J116" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K116" s="3" t="n">
         <v>6500</v>
@@ -5180,23 +5174,23 @@
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="J117" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K117" s="3" t="n">
         <v>1120</v>
@@ -5213,23 +5207,23 @@
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="J118" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K118" s="3" t="n">
         <v>1120</v>
@@ -5244,21 +5238,21 @@
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="K119" s="3" t="n">
         <v>1050</v>
@@ -5275,23 +5269,23 @@
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K120" s="3" t="n">
         <v>5600</v>
@@ -5308,23 +5302,23 @@
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="F121" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K121" s="3" t="n">
         <v>6668.5</v>
@@ -5341,23 +5335,23 @@
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K122" s="3" t="n">
         <v>1590.88</v>
@@ -5374,23 +5368,23 @@
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K123" s="3" t="n">
         <v>1265</v>
@@ -5407,23 +5401,23 @@
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K124" s="3" t="n">
         <v>1455</v>
@@ -5440,23 +5434,23 @@
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="F125" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="J125" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K125" s="3" t="n">
         <v>554.85</v>
@@ -5473,23 +5467,23 @@
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I126" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="K126" s="3" t="n">
         <v>1150</v>
@@ -5506,23 +5500,23 @@
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="K127" s="3" t="n">
         <v>1038.3</v>
@@ -5539,23 +5533,23 @@
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E128" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K128" s="3" t="n">
         <v>500</v>
@@ -5568,23 +5562,23 @@
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E129" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K129" s="3" t="n">
         <v>495</v>
@@ -5601,23 +5595,23 @@
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E130" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K130" s="3" t="n">
         <v>450</v>
@@ -5634,23 +5628,23 @@
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E131" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="J131" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K131" s="3" t="n">
         <v>422.33</v>
@@ -5667,23 +5661,23 @@
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E132" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K132" s="3" t="n">
         <v>495</v>
@@ -5698,23 +5692,23 @@
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E133" s="8" t="n">
         <v>0.043</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K133" s="3" t="n">
         <v>580</v>
@@ -5731,23 +5725,23 @@
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E134" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K134" s="3" t="n">
         <v>550</v>
@@ -5764,23 +5758,23 @@
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E135" s="8" t="n">
         <v>0.2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K135" s="3" t="n">
         <v>550</v>
@@ -5797,23 +5791,23 @@
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I136" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J136" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="K136" s="3" t="n">
         <v>365</v>
@@ -5830,23 +5824,23 @@
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I137" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="J137" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K137" s="3" t="n">
         <v>416.56</v>
@@ -5863,23 +5857,23 @@
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K138" s="3" t="n">
         <v>480</v>
@@ -5896,21 +5890,21 @@
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K139" s="3" t="n">
         <v>495</v>
@@ -5927,21 +5921,21 @@
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K140" s="3" t="n">
         <v>495</v>
@@ -5958,21 +5952,21 @@
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K141" s="3" t="n">
         <v>230</v>
@@ -5989,21 +5983,21 @@
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K142" s="3" t="n">
         <v>495</v>
@@ -6020,19 +6014,19 @@
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K143" s="3" t="n">
         <v>660</v>
@@ -6049,19 +6043,19 @@
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K144" s="3" t="n">
         <v>520</v>
@@ -6078,19 +6072,19 @@
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K145" s="3" t="n">
         <v>495</v>
@@ -6107,19 +6101,19 @@
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K146" s="3" t="n">
         <v>385</v>
@@ -6136,19 +6130,19 @@
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K147" s="3" t="n">
         <v>391</v>
@@ -6165,19 +6159,19 @@
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K148" s="3" t="n">
         <v>200</v>
@@ -6194,19 +6188,19 @@
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K149" s="3" t="n">
         <v>326</v>
@@ -6223,19 +6217,19 @@
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K150" s="3" t="n">
         <v>275</v>
@@ -6252,19 +6246,19 @@
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K151" s="3" t="n">
         <v>120</v>
@@ -6281,19 +6275,19 @@
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K152" s="3" t="n">
         <v>400</v>
@@ -6310,19 +6304,19 @@
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K153" s="3" t="n">
         <v>400</v>
@@ -6339,23 +6333,23 @@
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="F154" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K154" s="9" t="n">
         <v>18350</v>
@@ -6372,23 +6366,23 @@
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K155" s="9" t="n">
         <v>7260</v>
@@ -6402,19 +6396,19 @@
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K156" s="3" t="n">
         <v>600</v>
@@ -6431,23 +6425,23 @@
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K157" s="9" t="n">
         <v>5234</v>
@@ -6461,23 +6455,23 @@
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="F158" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K158" s="9" t="n">
         <v>550</v>
@@ -6494,23 +6488,23 @@
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="F159" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K159" s="9" t="n">
         <v>700</v>
@@ -6527,23 +6521,23 @@
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="F160" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K160" s="9" t="n">
         <v>650</v>
@@ -6560,23 +6554,23 @@
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="F161" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K161" s="9" t="n">
         <v>540</v>
@@ -6593,23 +6587,23 @@
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="F162" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K162" s="9" t="n">
         <v>720</v>
@@ -6626,23 +6620,23 @@
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F163" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K163" s="9" t="n">
         <v>2050</v>
@@ -6659,23 +6653,23 @@
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E164" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K164" s="9" t="n">
         <v>1400</v>
@@ -6692,19 +6686,19 @@
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K165" s="9" t="n">
         <v>40000</v>
@@ -6718,19 +6712,19 @@
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K166" s="9" t="n">
         <v>50000</v>
@@ -6744,19 +6738,19 @@
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K167" s="9" t="n">
         <v>42000</v>
@@ -6768,19 +6762,19 @@
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K168" s="9" t="n">
         <v>854.1</v>
@@ -6797,21 +6791,21 @@
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K169" s="9" t="n">
         <v>4500</v>
@@ -6825,21 +6819,21 @@
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K170" s="9" t="n">
         <v>600</v>
@@ -6856,21 +6850,21 @@
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K171" s="9" t="n">
         <v>340</v>
@@ -6887,21 +6881,21 @@
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K172" s="9" t="n">
         <v>3600</v>
@@ -6918,21 +6912,21 @@
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K173" s="9" t="n">
         <v>650</v>
@@ -6949,19 +6943,19 @@
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K174" s="9" t="n">
         <v>3700</v>
@@ -6978,21 +6972,21 @@
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K175" s="9" t="n">
         <v>970</v>
@@ -7009,21 +7003,21 @@
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K176" s="9" t="n">
         <v>48</v>
@@ -7038,23 +7032,23 @@
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E177" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K177" s="9" t="n">
         <v>500</v>
@@ -7071,21 +7065,21 @@
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K178" s="9" t="n">
         <v>1550</v>
@@ -7102,19 +7096,19 @@
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J179" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="K179" s="9" t="n">
         <v>3146</v>
@@ -7131,7 +7125,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E180" s="8" t="n">
         <v>0.02</v>
@@ -7139,13 +7133,13 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K180" s="9" t="n">
         <v>900</v>
@@ -7162,21 +7156,21 @@
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K181" s="9" t="n">
         <v>1500</v>
@@ -7193,21 +7187,21 @@
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K182" s="9" t="n">
         <v>1150</v>
@@ -7224,21 +7218,21 @@
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K183" s="9" t="n">
         <v>1110</v>
@@ -7255,21 +7249,21 @@
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K184" s="9" t="n">
         <v>1200</v>
@@ -7286,19 +7280,19 @@
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K185" s="9" t="n">
         <v>4500</v>
@@ -7315,23 +7309,23 @@
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K186" s="9" t="n">
         <v>689</v>
@@ -7348,19 +7342,19 @@
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K187" s="9" t="n">
         <v>790</v>
@@ -7377,19 +7371,19 @@
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K188" s="9" t="n">
         <v>680</v>
@@ -7406,19 +7400,19 @@
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K189" s="9" t="n">
         <v>120</v>
@@ -7435,21 +7429,21 @@
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K190" s="9" t="n">
         <v>750</v>
@@ -7466,21 +7460,21 @@
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K191" s="9" t="n">
         <v>7000</v>
@@ -7497,19 +7491,19 @@
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K192" s="9" t="n">
         <v>2400</v>
@@ -7526,21 +7520,21 @@
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K193" s="9" t="n">
         <v>350</v>
@@ -7557,19 +7551,19 @@
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K194" s="9" t="n">
         <v>1080</v>
@@ -7586,21 +7580,21 @@
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E195" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K195" s="9" t="n">
         <v>350</v>
@@ -7617,19 +7611,19 @@
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K196" s="9" t="n">
         <v>850</v>
@@ -7646,21 +7640,21 @@
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J197" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="K197" s="9" t="n">
         <v>3200</v>
@@ -7677,21 +7671,21 @@
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K198" s="9" t="n">
         <v>480</v>
@@ -7708,19 +7702,19 @@
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K199" s="9" t="n">
         <v>900</v>
@@ -7737,19 +7731,19 @@
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K200" s="9" t="n">
         <v>2850</v>
@@ -7766,19 +7760,19 @@
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K201" s="9" t="n">
         <v>104</v>
@@ -7795,19 +7789,19 @@
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K202" s="9" t="n">
         <v>1875</v>
@@ -7824,19 +7818,19 @@
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K203" s="9" t="n">
         <v>280</v>
@@ -7853,19 +7847,19 @@
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K204" s="9" t="n">
         <v>9570</v>
@@ -7882,21 +7876,21 @@
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E205" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K205" s="9" t="n">
         <v>750</v>
@@ -7913,19 +7907,19 @@
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K206" s="9" t="n">
         <v>8249</v>
@@ -7942,19 +7936,19 @@
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K207" s="9" t="n">
         <v>10121</v>
@@ -7971,21 +7965,21 @@
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J208" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="K208" s="9" t="n">
         <v>10930</v>
@@ -8002,19 +7996,19 @@
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K209" s="9" t="n">
         <v>85</v>
@@ -8031,21 +8025,21 @@
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K210" s="9" t="n">
         <v>1300</v>
@@ -8062,16 +8056,16 @@
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -8082,21 +8076,21 @@
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K212" s="9" t="n">
         <v>11765</v>
@@ -8113,21 +8107,21 @@
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K213" s="9" t="n">
         <v>11765</v>
@@ -8144,21 +8138,21 @@
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K214" s="9" t="n">
         <v>11759</v>
@@ -8175,19 +8169,19 @@
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K215" s="9" t="n">
         <v>3700</v>
